--- a/data/trans_orig/P44D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8C2506E-2CD4-4268-AF93-9F6482E7F048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E12AB90-8F7B-409F-90AE-B3938962290F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DC739738-67AA-4655-833E-6886B4FEE95F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8791995-39D4-4076-AB15-0F805A36F863}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="285">
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -397,217 +397,211 @@
     <t>15,85%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
   </si>
   <si>
     <t>84,15%</t>
   </si>
   <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
+    <t>38,95%</t>
   </si>
   <si>
     <t>12,84%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>83,61%</t>
   </si>
   <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>61,05%</t>
   </si>
   <si>
     <t>87,16%</t>
   </si>
   <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
@@ -619,13 +613,13 @@
     <t>5,46%</t>
   </si>
   <si>
-    <t>20,07%</t>
+    <t>16,88%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>11,05%</t>
+    <t>10,22%</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -634,277 +628,271 @@
     <t>94,54%</t>
   </si>
   <si>
-    <t>79,93%</t>
+    <t>83,12%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>88,95%</t>
+    <t>89,78%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>8,16%</t>
+    <t>7,91%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>91,84%</t>
+    <t>92,09%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>94,86%</t>
   </si>
   <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>8,1%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
   </si>
   <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
     <t>85,01%</t>
   </si>
   <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>87,09%</t>
   </si>
   <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
     <t>80,65%</t>
   </si>
   <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>87,11%</t>
   </si>
   <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>91,02%</t>
   </si>
   <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F499CB0-98B1-4079-8F1E-2F53F1F3DBAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C629ADA6-34FA-4B63-8EC3-DC4385D0EAA7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2379,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187E7B09-1E40-451E-A55E-CA28FD14DBEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FB549F-210E-469F-91F4-E87B45C437A8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2986,10 +2974,10 @@
         <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2998,13 +2986,13 @@
         <v>6507</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3007,13 @@
         <v>28146</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3034,13 +3022,13 @@
         <v>16042</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -3049,13 +3037,13 @@
         <v>44188</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3111,13 @@
         <v>13414</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3138,13 +3126,13 @@
         <v>4502</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3153,13 +3141,13 @@
         <v>17916</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3162,13 @@
         <v>44022</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -3189,13 +3177,13 @@
         <v>30057</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -3204,13 +3192,13 @@
         <v>74079</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3266,13 @@
         <v>22912</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3293,13 +3281,13 @@
         <v>12404</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -3308,13 +3296,13 @@
         <v>35316</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3317,13 @@
         <v>134646</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -3344,13 +3332,13 @@
         <v>96400</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M20" s="7">
         <v>211</v>
@@ -3359,13 +3347,13 @@
         <v>231046</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,7 +3430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBDFC13-10D7-4E6A-96E4-434197E769E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB7238D-B484-455A-8125-DF8B9F166399}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3459,7 +3447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3572,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3581,13 +3569,13 @@
         <v>1035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3596,13 +3584,13 @@
         <v>1035</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,7 +3608,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3632,10 +3620,10 @@
         <v>17925</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3647,10 +3635,10 @@
         <v>33390</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3721,13 +3709,13 @@
         <v>1982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3736,13 +3724,13 @@
         <v>2871</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3751,13 +3739,13 @@
         <v>4853</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,10 +3760,10 @@
         <v>79821</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3787,13 +3775,13 @@
         <v>83611</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>274</v>
@@ -3802,13 +3790,13 @@
         <v>163433</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3864,13 @@
         <v>10286</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3891,13 +3879,13 @@
         <v>7493</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -3906,13 +3894,13 @@
         <v>17779</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3915,13 @@
         <v>194172</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>221</v>
@@ -3942,13 +3930,13 @@
         <v>134167</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>397</v>
@@ -3957,13 +3945,13 @@
         <v>328339</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4019,13 @@
         <v>17104</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -4046,13 +4034,13 @@
         <v>10154</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4061,13 +4049,13 @@
         <v>27259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4070,13 @@
         <v>96972</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
         <v>118</v>
@@ -4097,13 +4085,13 @@
         <v>68490</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
         <v>230</v>
@@ -4112,13 +4100,13 @@
         <v>165461</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4174,13 @@
         <v>26196</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4201,13 +4189,13 @@
         <v>17145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -4216,13 +4204,13 @@
         <v>43341</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4225,13 @@
         <v>177033</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>295</v>
@@ -4252,13 +4240,13 @@
         <v>185389</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>526</v>
@@ -4267,13 +4255,13 @@
         <v>362421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4329,13 @@
         <v>55568</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -4356,13 +4344,13 @@
         <v>38697</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -4371,13 +4359,13 @@
         <v>94265</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4380,13 @@
         <v>563462</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>835</v>
@@ -4407,13 +4395,13 @@
         <v>489584</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M20" s="7">
         <v>1482</v>
@@ -4422,13 +4410,13 @@
         <v>1053045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P44D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E12AB90-8F7B-409F-90AE-B3938962290F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D32BDA3-1A36-4E00-8569-3B3205878B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8791995-39D4-4076-AB15-0F805A36F863}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0637E8C2-DA63-4081-BADD-4A43F5D0DDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Servicio sanitario privado</t>
@@ -106,145 +106,145 @@
     <t>69,43%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>35,7%</t>
+    <t>36,84%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>30,77%</t>
+    <t>31,34%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>22,26%</t>
+    <t>25,98%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>64,3%</t>
+    <t>63,16%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>69,23%</t>
+    <t>68,66%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>41,15%</t>
+    <t>39,41%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
   </si>
   <si>
     <t>87,77%</t>
   </si>
   <si>
-    <t>58,85%</t>
+    <t>60,59%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>87,66%</t>
   </si>
   <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>24,64%</t>
+    <t>24,89%</t>
   </si>
   <si>
     <t>25,99%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>75,36%</t>
+    <t>75,11%</t>
   </si>
   <si>
     <t>74,01%</t>
   </si>
   <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>83,56%</t>
   </si>
   <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -253,55 +253,55 @@
     <t>20,12%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
   </si>
   <si>
     <t>79,88%</t>
   </si>
   <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>76,17%</t>
   </si>
   <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
   <si>
     <t>13,0%</t>
@@ -310,31 +310,31 @@
     <t>6,58%</t>
   </si>
   <si>
-    <t>22,27%</t>
+    <t>22,29%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>77,73%</t>
+    <t>77,71%</t>
   </si>
   <si>
     <t>93,42%</t>
@@ -343,25 +343,25 @@
     <t>82,08%</t>
   </si>
   <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,71%)</t>
+    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,71%)</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -397,211 +397,217 @@
     <t>15,85%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>84,15%</t>
   </si>
   <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>38,95%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
   </si>
   <si>
     <t>12,84%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>83,61%</t>
   </si>
   <si>
-    <t>61,05%</t>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>87,16%</t>
   </si>
   <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
@@ -700,9 +706,6 @@
     <t>2,97%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
     <t>5,14%</t>
   </si>
   <si>
@@ -722,9 +725,6 @@
   </si>
   <si>
     <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
   </si>
   <si>
     <t>97,03%</t>
@@ -1304,7 +1304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C629ADA6-34FA-4B63-8EC3-DC4385D0EAA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91772CED-CE96-460D-B543-AED5A10B5F86}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2367,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FB549F-210E-469F-91F4-E87B45C437A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F762C0-EF85-4FFA-ACB4-F97A0860C887}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2974,10 +2974,10 @@
         <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2986,13 +2986,13 @@
         <v>6507</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3007,13 @@
         <v>28146</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3022,13 +3022,13 @@
         <v>16042</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -3037,13 +3037,13 @@
         <v>44188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3111,13 @@
         <v>13414</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3126,13 +3126,13 @@
         <v>4502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3141,13 +3141,13 @@
         <v>17916</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3162,13 @@
         <v>44022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -3177,13 +3177,13 @@
         <v>30057</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -3192,13 +3192,13 @@
         <v>74079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3266,13 @@
         <v>22912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3281,13 +3281,13 @@
         <v>12404</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -3296,13 +3296,13 @@
         <v>35316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3317,13 @@
         <v>134646</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -3332,13 +3332,13 @@
         <v>96400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M20" s="7">
         <v>211</v>
@@ -3347,13 +3347,13 @@
         <v>231046</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,7 +3430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB7238D-B484-455A-8125-DF8B9F166399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E099C1C-1745-4719-BDEA-8351DFBE6346}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3447,7 +3447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3560,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3569,13 +3569,13 @@
         <v>1035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3584,13 +3584,13 @@
         <v>1035</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,7 +3608,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3620,10 +3620,10 @@
         <v>17925</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3635,10 +3635,10 @@
         <v>33390</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3709,13 +3709,13 @@
         <v>1982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3724,13 +3724,13 @@
         <v>2871</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3739,13 +3739,13 @@
         <v>4853</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,10 +3760,10 @@
         <v>79821</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3775,13 +3775,13 @@
         <v>83611</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>274</v>
@@ -3790,13 +3790,13 @@
         <v>163433</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3864,13 @@
         <v>10286</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3879,13 +3879,13 @@
         <v>7493</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -3894,13 +3894,13 @@
         <v>17779</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3915,13 @@
         <v>194172</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>221</v>
@@ -3930,10 +3930,10 @@
         <v>134167</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>229</v>
@@ -4052,7 +4052,7 @@
         <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>240</v>
@@ -4106,7 +4106,7 @@
         <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P44D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D32BDA3-1A36-4E00-8569-3B3205878B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5A67E2E-63CB-44BF-974F-955DC166ADC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0637E8C2-DA63-4081-BADD-4A43F5D0DDA4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F97E74A3-D799-4B21-A997-D5F65FC75EFD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="289">
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -112,37 +112,37 @@
     <t>7,05%</t>
   </si>
   <si>
-    <t>36,84%</t>
+    <t>35,7%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>31,34%</t>
+    <t>30,77%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>25,98%</t>
+    <t>22,26%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>63,16%</t>
+    <t>64,3%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>68,66%</t>
+    <t>69,23%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>74,02%</t>
+    <t>77,74%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -151,49 +151,49 @@
     <t>12,23%</t>
   </si>
   <si>
-    <t>39,41%</t>
+    <t>41,15%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
   </si>
   <si>
     <t>87,77%</t>
   </si>
   <si>
-    <t>60,59%</t>
+    <t>58,85%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>87,66%</t>
   </si>
   <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -202,49 +202,49 @@
     <t>7,29%</t>
   </si>
   <si>
-    <t>24,89%</t>
+    <t>24,64%</t>
   </si>
   <si>
     <t>25,99%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>75,11%</t>
+    <t>75,36%</t>
   </si>
   <si>
     <t>74,01%</t>
   </si>
   <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>83,56%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -253,55 +253,55 @@
     <t>20,12%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
   </si>
   <si>
     <t>79,88%</t>
   </si>
   <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>76,17%</t>
   </si>
   <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>13,0%</t>
@@ -310,31 +310,31 @@
     <t>6,58%</t>
   </si>
   <si>
-    <t>22,29%</t>
+    <t>22,27%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>77,71%</t>
+    <t>77,73%</t>
   </si>
   <si>
     <t>93,42%</t>
@@ -343,19 +343,19 @@
     <t>82,08%</t>
   </si>
   <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -397,217 +397,217 @@
     <t>15,85%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
   <si>
     <t>84,15%</t>
   </si>
   <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
   </si>
   <si>
     <t>12,84%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
   </si>
   <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>83,61%</t>
   </si>
   <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>87,16%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
@@ -619,13 +619,13 @@
     <t>5,46%</t>
   </si>
   <si>
-    <t>16,88%</t>
+    <t>20,07%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>10,22%</t>
+    <t>11,05%</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -634,265 +634,277 @@
     <t>94,54%</t>
   </si>
   <si>
-    <t>83,12%</t>
+    <t>79,93%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>89,78%</t>
+    <t>88,95%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>7,91%</t>
+    <t>8,16%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>92,09%</t>
+    <t>91,84%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>97,03%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>94,86%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>19,35%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
   </si>
   <si>
     <t>85,01%</t>
   </si>
   <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>87,09%</t>
   </si>
   <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>85,86%</t>
   </si>
   <si>
-    <t>80,65%</t>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>87,11%</t>
   </si>
   <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>91,02%</t>
   </si>
   <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91772CED-CE96-460D-B543-AED5A10B5F86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FA31E8-4527-48FB-B99C-DA4A3B25C9BC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2367,7 +2379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F762C0-EF85-4FFA-ACB4-F97A0860C887}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8379B254-791F-4DF8-85DD-FB6C11A95D6A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3430,7 +3442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E099C1C-1745-4719-BDEA-8351DFBE6346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036D5A82-34B1-40E4-9E1E-00ABBD7DED26}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3885,7 +3897,7 @@
         <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -3894,13 +3906,13 @@
         <v>17779</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3927,13 @@
         <v>194172</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>221</v>
@@ -3930,13 +3942,13 @@
         <v>134167</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>397</v>
@@ -3945,13 +3957,13 @@
         <v>328339</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4031,13 @@
         <v>17104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -4034,13 +4046,13 @@
         <v>10154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4049,13 +4061,13 @@
         <v>27259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4082,13 @@
         <v>96972</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>118</v>
@@ -4085,13 +4097,13 @@
         <v>68490</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>230</v>
@@ -4100,13 +4112,13 @@
         <v>165461</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4186,13 @@
         <v>26196</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4189,13 +4201,13 @@
         <v>17145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -4204,13 +4216,13 @@
         <v>43341</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4237,13 @@
         <v>177033</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
         <v>295</v>
@@ -4240,13 +4252,13 @@
         <v>185389</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M17" s="7">
         <v>526</v>
@@ -4255,13 +4267,13 @@
         <v>362421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4341,13 @@
         <v>55568</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -4344,13 +4356,13 @@
         <v>38697</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -4359,13 +4371,13 @@
         <v>94265</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4392,13 @@
         <v>563462</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>835</v>
@@ -4395,13 +4407,13 @@
         <v>489584</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
         <v>1482</v>
@@ -4410,13 +4422,13 @@
         <v>1053045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P44D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5A67E2E-63CB-44BF-974F-955DC166ADC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0434524-0D8E-4022-A4D3-26DEC1DDD009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F97E74A3-D799-4B21-A997-D5F65FC75EFD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{739159E0-06CB-45DB-B5BA-E8C02A37A6DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="268">
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -67,331 +67,298 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Servicio sanitario privado</t>
   </si>
   <si>
+    <t>6,27%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>Servicio sanitario público</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,71%)</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>Servicio sanitario público</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,71%)</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>15,85%</t>
@@ -613,298 +580,268 @@
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
 </sst>
 </file>
@@ -1316,8 +1253,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FA31E8-4527-48FB-B99C-DA4A3B25C9BC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F8E768-D936-46FD-BB48-BFDF142F3559}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1434,10 +1371,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1449,85 +1386,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1945</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>1685</v>
+        <v>14248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>3192</v>
+        <v>15314</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>4876</v>
+        <v>29563</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1536,153 +1473,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>1685</v>
+        <v>15201</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>3192</v>
+        <v>16307</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N6" s="7">
-        <v>4876</v>
+        <v>31508</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>953</v>
+        <v>3486</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>993</v>
+        <v>4517</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>1945</v>
+        <v>8003</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>12563</v>
+        <v>25015</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
         <v>29</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
       <c r="I8" s="7">
-        <v>12123</v>
+        <v>31821</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N8" s="7">
-        <v>24687</v>
+        <v>56836</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,54 +1628,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
-        <v>13516</v>
+        <v>28501</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I9" s="7">
-        <v>13116</v>
+        <v>36338</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="N9" s="7">
-        <v>26632</v>
+        <v>64839</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1747,97 +1684,97 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3486</v>
+        <v>2088</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>4517</v>
+        <v>7122</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>8003</v>
+        <v>9210</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>25015</v>
+        <v>26536</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>31821</v>
+        <v>20284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N11" s="7">
-        <v>56836</v>
+        <v>46820</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,153 +1783,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7">
+        <v>28624</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>24</v>
       </c>
-      <c r="D12" s="7">
-        <v>28501</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
       <c r="I12" s="7">
-        <v>36338</v>
+        <v>27406</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N12" s="7">
-        <v>64839</v>
+        <v>56030</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>2088</v>
+        <v>8125</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>7122</v>
+        <v>6902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>9210</v>
+        <v>15027</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7">
+        <v>32255</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="7">
         <v>21</v>
       </c>
-      <c r="D14" s="7">
-        <v>26536</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>19</v>
-      </c>
       <c r="I14" s="7">
-        <v>20284</v>
+        <v>22060</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N14" s="7">
-        <v>46820</v>
+        <v>54315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,153 +1938,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7">
-        <v>28624</v>
+        <v>40380</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I15" s="7">
-        <v>27406</v>
+        <v>28962</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N15" s="7">
-        <v>56030</v>
+        <v>69342</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>8125</v>
+        <v>14651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>6902</v>
+        <v>19534</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N16" s="7">
-        <v>15027</v>
+        <v>34185</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D17" s="7">
-        <v>32255</v>
+        <v>98055</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I17" s="7">
-        <v>22060</v>
+        <v>89479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="N17" s="7">
-        <v>54315</v>
+        <v>187534</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,217 +2093,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D18" s="7">
-        <v>40380</v>
+        <v>112706</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I18" s="7">
-        <v>28962</v>
+        <v>109013</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="N18" s="7">
-        <v>69342</v>
+        <v>221719</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7">
-        <v>14651</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="7">
-        <v>15</v>
-      </c>
-      <c r="I19" s="7">
-        <v>19534</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" s="7">
-        <v>26</v>
-      </c>
-      <c r="N19" s="7">
-        <v>34185</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>86</v>
-      </c>
-      <c r="D20" s="7">
-        <v>98055</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="A19" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="7">
-        <v>84</v>
-      </c>
-      <c r="I20" s="7">
-        <v>89479</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="7">
-        <v>170</v>
-      </c>
-      <c r="N20" s="7">
-        <v>187534</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>97</v>
-      </c>
-      <c r="D21" s="7">
-        <v>112706</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>99</v>
-      </c>
-      <c r="I21" s="7">
-        <v>109013</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>196</v>
-      </c>
-      <c r="N21" s="7">
-        <v>221719</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2379,8 +2160,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8379B254-791F-4DF8-85DD-FB6C11A95D6A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E753A7D1-E3F6-41F1-9D67-7A8B42AD6FD0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2396,7 +2177,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2503,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2518,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2533,64 +2314,64 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>7260</v>
+        <v>29904</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>4959</v>
+        <v>24749</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>50</v>
+      </c>
+      <c r="N5" s="7">
+        <v>54653</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>12</v>
-      </c>
-      <c r="N5" s="7">
-        <v>12219</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,153 +2380,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>7260</v>
+        <v>29904</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>4959</v>
+        <v>24749</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7">
-        <v>12219</v>
+        <v>54653</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>6135</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4758</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" s="7">
+        <v>10893</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7">
+        <v>32575</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="7">
         <v>21</v>
       </c>
-      <c r="D8" s="7">
-        <v>22644</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>17</v>
-      </c>
       <c r="I8" s="7">
-        <v>19790</v>
+        <v>25552</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="N8" s="7">
-        <v>42434</v>
+        <v>58127</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,153 +2535,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7">
-        <v>22644</v>
+        <v>38710</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I9" s="7">
-        <v>19790</v>
+        <v>30310</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="N9" s="7">
-        <v>42434</v>
+        <v>69020</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3363</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3144</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
-        <v>6135</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4758</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" s="7">
-        <v>10</v>
-      </c>
       <c r="N10" s="7">
-        <v>10893</v>
+        <v>6507</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>32575</v>
+        <v>28146</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>25552</v>
+        <v>16042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N11" s="7">
-        <v>58127</v>
+        <v>44188</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,153 +2690,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D12" s="7">
-        <v>38710</v>
+        <v>31509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I12" s="7">
-        <v>30310</v>
+        <v>19186</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="N12" s="7">
-        <v>69020</v>
+        <v>50695</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>3363</v>
+        <v>13414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>3144</v>
+        <v>4502</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>6507</v>
+        <v>17916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>28146</v>
+        <v>44022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>16042</v>
+        <v>30057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="N14" s="7">
-        <v>44188</v>
+        <v>74079</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,153 +2845,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D15" s="7">
-        <v>31509</v>
+        <v>57436</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I15" s="7">
-        <v>19186</v>
+        <v>34559</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="N15" s="7">
-        <v>50695</v>
+        <v>91995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>13414</v>
+        <v>22912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>4502</v>
+        <v>12404</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>17916</v>
+        <v>35316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="D17" s="7">
-        <v>44022</v>
+        <v>134646</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I17" s="7">
-        <v>30057</v>
+        <v>96400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="N17" s="7">
-        <v>74079</v>
+        <v>231046</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,217 +3000,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="D18" s="7">
-        <v>57436</v>
+        <v>157558</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="I18" s="7">
-        <v>34559</v>
+        <v>108804</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="N18" s="7">
-        <v>91995</v>
+        <v>266362</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7">
-        <v>22912</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="7">
-        <v>11</v>
-      </c>
-      <c r="I19" s="7">
-        <v>12404</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M19" s="7">
-        <v>33</v>
-      </c>
-      <c r="N19" s="7">
-        <v>35316</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>129</v>
-      </c>
-      <c r="D20" s="7">
-        <v>134646</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" s="7">
-        <v>82</v>
-      </c>
-      <c r="I20" s="7">
-        <v>96400</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M20" s="7">
-        <v>211</v>
-      </c>
-      <c r="N20" s="7">
-        <v>231046</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>151</v>
-      </c>
-      <c r="D21" s="7">
-        <v>157558</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>93</v>
-      </c>
-      <c r="I21" s="7">
-        <v>108804</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>244</v>
-      </c>
-      <c r="N21" s="7">
-        <v>266362</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>106</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3442,8 +3067,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036D5A82-34B1-40E4-9E1E-00ABBD7DED26}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DB76D3-15A9-404C-B2D2-911A9B67D872}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3459,7 +3084,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3560,100 +3185,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1766</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>1035</v>
+        <v>3601</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>1035</v>
+        <v>5367</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="D5" s="7">
-        <v>15464</v>
+        <v>91220</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="I5" s="7">
-        <v>17925</v>
+        <v>94060</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
-        <v>55</v>
+        <v>329</v>
       </c>
       <c r="N5" s="7">
-        <v>33390</v>
+        <v>185280</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,153 +3287,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="D6" s="7">
-        <v>15464</v>
+        <v>92986</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>18960</v>
+        <v>97661</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>57</v>
+        <v>339</v>
       </c>
       <c r="N6" s="7">
-        <v>34425</v>
+        <v>190647</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>1982</v>
+        <v>9362</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="7">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6788</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>23</v>
+      </c>
+      <c r="N7" s="7">
+        <v>16150</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2871</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M7" s="7">
-        <v>8</v>
-      </c>
-      <c r="N7" s="7">
-        <v>4853</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="D8" s="7">
-        <v>79821</v>
+        <v>377618</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="7">
+        <v>221</v>
+      </c>
+      <c r="I8" s="7">
+        <v>120396</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>164</v>
-      </c>
-      <c r="I8" s="7">
-        <v>83611</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>397</v>
+      </c>
+      <c r="N8" s="7">
+        <v>498014</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="M8" s="7">
-        <v>274</v>
-      </c>
-      <c r="N8" s="7">
-        <v>163433</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,153 +3442,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="D9" s="7">
-        <v>81803</v>
+        <v>386980</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="I9" s="7">
-        <v>86482</v>
+        <v>127184</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>282</v>
+        <v>420</v>
       </c>
       <c r="N9" s="7">
-        <v>168286</v>
+        <v>514164</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>10286</v>
+        <v>16204</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="7">
+        <v>17</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9064</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H10" s="7">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7493</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>36</v>
+      </c>
+      <c r="N10" s="7">
+        <v>25268</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="M10" s="7">
-        <v>23</v>
-      </c>
-      <c r="N10" s="7">
-        <v>17779</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="D11" s="7">
-        <v>194172</v>
+        <v>91520</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="7">
+        <v>118</v>
+      </c>
+      <c r="I11" s="7">
+        <v>63242</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H11" s="7">
-        <v>221</v>
-      </c>
-      <c r="I11" s="7">
-        <v>134167</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>230</v>
+      </c>
+      <c r="N11" s="7">
+        <v>154762</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="M11" s="7">
-        <v>397</v>
-      </c>
-      <c r="N11" s="7">
-        <v>328339</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,153 +3597,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="D12" s="7">
-        <v>204458</v>
+        <v>107724</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="I12" s="7">
-        <v>141660</v>
+        <v>72306</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>420</v>
+        <v>266</v>
       </c>
       <c r="N12" s="7">
-        <v>346118</v>
+        <v>180030</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>17104</v>
+        <v>24601</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="7">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7">
+        <v>15828</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10154</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>62</v>
+      </c>
+      <c r="N13" s="7">
+        <v>40429</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="M13" s="7">
-        <v>36</v>
-      </c>
-      <c r="N13" s="7">
-        <v>27259</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>96972</v>
+        <v>166872</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H14" s="7">
+        <v>295</v>
+      </c>
+      <c r="I14" s="7">
+        <v>166444</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H14" s="7">
-        <v>118</v>
-      </c>
-      <c r="I14" s="7">
-        <v>68490</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>526</v>
+      </c>
+      <c r="N14" s="7">
+        <v>333317</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="M14" s="7">
-        <v>230</v>
-      </c>
-      <c r="N14" s="7">
-        <v>165461</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,153 +3752,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="D15" s="7">
-        <v>114076</v>
+        <v>191473</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="I15" s="7">
-        <v>78644</v>
+        <v>182272</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>266</v>
+        <v>588</v>
       </c>
       <c r="N15" s="7">
-        <v>192720</v>
+        <v>373746</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D16" s="7">
-        <v>26196</v>
+        <v>51933</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H16" s="7">
+        <v>65</v>
+      </c>
+      <c r="I16" s="7">
+        <v>35281</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H16" s="7">
-        <v>28</v>
-      </c>
-      <c r="I16" s="7">
-        <v>17145</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>131</v>
+      </c>
+      <c r="N16" s="7">
+        <v>87214</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="M16" s="7">
-        <v>62</v>
-      </c>
-      <c r="N16" s="7">
-        <v>43341</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>231</v>
+        <v>647</v>
       </c>
       <c r="D17" s="7">
-        <v>177033</v>
+        <v>727230</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="7">
+        <v>835</v>
+      </c>
+      <c r="I17" s="7">
+        <v>444142</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H17" s="7">
-        <v>295</v>
-      </c>
-      <c r="I17" s="7">
-        <v>185389</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1482</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1171373</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="M17" s="7">
-        <v>526</v>
-      </c>
-      <c r="N17" s="7">
-        <v>362421</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,217 +3907,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>265</v>
+        <v>713</v>
       </c>
       <c r="D18" s="7">
-        <v>203229</v>
+        <v>779163</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>323</v>
+        <v>900</v>
       </c>
       <c r="I18" s="7">
-        <v>202534</v>
+        <v>479423</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>588</v>
+        <v>1613</v>
       </c>
       <c r="N18" s="7">
-        <v>405762</v>
+        <v>1258587</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>66</v>
-      </c>
-      <c r="D19" s="7">
-        <v>55568</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H19" s="7">
-        <v>65</v>
-      </c>
-      <c r="I19" s="7">
-        <v>38697</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M19" s="7">
-        <v>131</v>
-      </c>
-      <c r="N19" s="7">
-        <v>94265</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>647</v>
-      </c>
-      <c r="D20" s="7">
-        <v>563462</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H20" s="7">
-        <v>835</v>
-      </c>
-      <c r="I20" s="7">
-        <v>489584</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1482</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1053045</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>713</v>
-      </c>
-      <c r="D21" s="7">
-        <v>619030</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>900</v>
-      </c>
-      <c r="I21" s="7">
-        <v>528281</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1613</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1147310</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>106</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
